--- a/ファイル構成一覧表_3SFY.xlsx
+++ b/ファイル構成一覧表_3SFY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Web開発研修\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AF90E1-29AB-4292-83B4-180B59F35E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6D1AD-5AE7-4311-9174-1D970DD587AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -263,42 +263,24 @@
     <t>recipeテーブルアクセス用</t>
   </si>
   <si>
-    <t>record.jsp</t>
-  </si>
-  <si>
     <t>日々の食事登録.jsp</t>
   </si>
   <si>
     <t>山口</t>
   </si>
   <si>
-    <t>recordServlet.jsp</t>
-  </si>
-  <si>
     <t>日々の食事記録用</t>
   </si>
   <si>
-    <t>record.css</t>
-  </si>
-  <si>
     <t>日々の食事記録.css</t>
   </si>
   <si>
-    <t>record.js</t>
-  </si>
-  <si>
     <t>日々の食事記録.js</t>
   </si>
   <si>
-    <t>recordDAO.java</t>
-  </si>
-  <si>
     <t>recordテーブルアクセス用</t>
   </si>
   <si>
-    <t>record.java</t>
-  </si>
-  <si>
     <t>食事記録モデル</t>
   </si>
   <si>
@@ -501,13 +483,181 @@
   </si>
   <si>
     <t>挿入する画像</t>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.jsp</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Servlet.jsp</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.java</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DAO.java</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +670,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -896,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64:G66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1440,13 +1598,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1460,13 +1618,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1480,13 +1638,13 @@
         <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1500,13 +1658,13 @@
         <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1520,13 +1678,13 @@
         <v>31</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1540,13 +1698,13 @@
         <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1560,10 +1718,10 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>59</v>
@@ -1580,10 +1738,10 @@
         <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>59</v>
@@ -1600,10 +1758,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>59</v>
@@ -1620,10 +1778,10 @@
         <v>20</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>59</v>
@@ -1640,10 +1798,10 @@
         <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>59</v>
@@ -1660,10 +1818,10 @@
         <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>59</v>
@@ -1680,10 +1838,10 @@
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>50</v>
@@ -1700,10 +1858,10 @@
         <v>20</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>50</v>
@@ -1720,10 +1878,10 @@
         <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>50</v>
@@ -1740,10 +1898,10 @@
         <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>50</v>
@@ -1760,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>10</v>
@@ -1780,10 +1938,10 @@
         <v>20</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>10</v>
@@ -1800,10 +1958,10 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>10</v>
@@ -1820,10 +1978,10 @@
         <v>12</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>10</v>
@@ -1840,10 +1998,10 @@
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>10</v>
@@ -1860,10 +2018,10 @@
         <v>20</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>10</v>
@@ -1880,10 +2038,10 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>10</v>
@@ -1900,10 +2058,10 @@
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>10</v>
@@ -1920,10 +2078,10 @@
         <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>39</v>
@@ -1940,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>39</v>
@@ -1960,10 +2118,10 @@
         <v>31</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>39</v>
@@ -1980,10 +2138,10 @@
         <v>34</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>39</v>
@@ -2000,10 +2158,10 @@
         <v>16</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>39</v>
@@ -2020,10 +2178,10 @@
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>39</v>
@@ -2040,13 +2198,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2060,13 +2218,13 @@
         <v>20</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2080,13 +2238,13 @@
         <v>31</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
@@ -2100,13 +2258,13 @@
         <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
@@ -2120,13 +2278,13 @@
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
@@ -2140,13 +2298,13 @@
         <v>34</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
@@ -2160,10 +2318,10 @@
         <v>16</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>39</v>
@@ -2180,10 +2338,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>39</v>
@@ -2194,16 +2352,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>39</v>
@@ -2217,6 +2375,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2387,15 +2554,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2403,6 +2561,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2417,14 +2583,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
